--- a/Assets/SceneData/Game/Editor/Excel/EnemyPopTable.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/EnemyPopTable.xlsx
@@ -19,7 +19,7 @@
     <t>EnemyIds</t>
   </si>
   <si>
-    <t>0,1</t>
+    <t>0,1,2,3,4</t>
   </si>
 </sst>
 </file>
@@ -93,6 +93,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/SceneData/Game/Editor/Excel/EnemyPopTable.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/EnemyPopTable.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -53,6 +53,81 @@
   </si>
   <si>
     <t>44,45,47,50</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>101,102</t>
+  </si>
+  <si>
+    <t>102,103</t>
+  </si>
+  <si>
+    <t>101,102,103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>104,105</t>
+  </si>
+  <si>
+    <t>105,106</t>
+  </si>
+  <si>
+    <t>104,105,106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>107,108</t>
+  </si>
+  <si>
+    <t>107,109</t>
+  </si>
+  <si>
+    <t>107,108,109</t>
+  </si>
+  <si>
+    <t>110,111,112</t>
+  </si>
+  <si>
+    <t>111,113</t>
+  </si>
+  <si>
+    <t>112,114</t>
+  </si>
+  <si>
+    <t>112,113,114,115</t>
+  </si>
+  <si>
+    <t>113,115</t>
+  </si>
+  <si>
+    <t>116,117,118</t>
+  </si>
+  <si>
+    <t>117,118,119,120</t>
   </si>
 </sst>
 </file>
@@ -123,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -157,37 +232,28 @@
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
@@ -556,8 +622,8 @@
       <c r="A19" s="12">
         <v>17.0</v>
       </c>
-      <c r="B19" s="13">
-        <v>101.0</v>
+      <c r="B19" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -588,8 +654,8 @@
       <c r="A20" s="12">
         <v>18.0</v>
       </c>
-      <c r="B20" s="13">
-        <v>102.0</v>
+      <c r="B20" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -620,8 +686,8 @@
       <c r="A21" s="12">
         <v>19.0</v>
       </c>
-      <c r="B21" s="15">
-        <v>103.0</v>
+      <c r="B21" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -652,8 +718,8 @@
       <c r="A22" s="12">
         <v>20.0</v>
       </c>
-      <c r="B22" s="15">
-        <v>101102.0</v>
+      <c r="B22" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -684,8 +750,8 @@
       <c r="A23" s="12">
         <v>21.0</v>
       </c>
-      <c r="B23" s="15">
-        <v>102103.0</v>
+      <c r="B23" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -716,8 +782,8 @@
       <c r="A24" s="12">
         <v>22.0</v>
       </c>
-      <c r="B24" s="15">
-        <v>1.01102103E8</v>
+      <c r="B24" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -745,612 +811,612 @@
       <c r="Z24" s="14"/>
     </row>
     <row r="25">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>23.0</v>
       </c>
-      <c r="B25" s="17">
-        <v>104.0</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
+      <c r="B25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
     </row>
     <row r="26">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>24.0</v>
       </c>
-      <c r="B26" s="17">
-        <v>105.0</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
+      <c r="B26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
     </row>
     <row r="27">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>25.0</v>
       </c>
-      <c r="B27" s="17">
-        <v>106.0</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
+      <c r="B27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
     </row>
     <row r="28">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>26.0</v>
       </c>
-      <c r="B28" s="19">
-        <v>104105.0</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
+      <c r="B28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
     </row>
     <row r="29">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>27.0</v>
       </c>
-      <c r="B29" s="19">
-        <v>105106.0</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
+      <c r="B29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
     </row>
     <row r="30">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>28.0</v>
       </c>
-      <c r="B30" s="19">
-        <v>1.04105106E8</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
+      <c r="B30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
     </row>
     <row r="31">
-      <c r="A31" s="20">
+      <c r="A31" s="18">
         <v>29.0</v>
       </c>
-      <c r="B31" s="21">
-        <v>107.0</v>
-      </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
+      <c r="B31" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
     </row>
     <row r="32">
-      <c r="A32" s="20">
+      <c r="A32" s="18">
         <v>30.0</v>
       </c>
-      <c r="B32" s="21">
-        <v>108.0</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
+      <c r="B32" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
     </row>
     <row r="33">
-      <c r="A33" s="20">
+      <c r="A33" s="18">
         <v>31.0</v>
       </c>
-      <c r="B33" s="21">
-        <v>109.0</v>
-      </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
+      <c r="B33" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
     </row>
     <row r="34">
-      <c r="A34" s="20">
+      <c r="A34" s="18">
         <v>32.0</v>
       </c>
-      <c r="B34" s="23">
-        <v>107108.0</v>
-      </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
+      <c r="B34" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
     </row>
     <row r="35">
-      <c r="A35" s="20">
+      <c r="A35" s="18">
         <v>33.0</v>
       </c>
-      <c r="B35" s="23">
-        <v>107109.0</v>
-      </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
+      <c r="B35" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
     </row>
     <row r="36">
-      <c r="A36" s="20">
+      <c r="A36" s="18">
         <v>34.0</v>
       </c>
-      <c r="B36" s="23">
-        <v>1.07108109E8</v>
-      </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
+      <c r="B36" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
     </row>
     <row r="37">
-      <c r="A37" s="24">
+      <c r="A37" s="21">
         <v>35.0</v>
       </c>
-      <c r="B37" s="25">
-        <v>1.10111112E8</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
-      <c r="X37" s="26"/>
-      <c r="Y37" s="26"/>
-      <c r="Z37" s="26"/>
+      <c r="B37" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="23"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
     </row>
     <row r="38">
-      <c r="A38" s="24">
+      <c r="A38" s="21">
         <v>36.0</v>
       </c>
-      <c r="B38" s="25">
-        <v>111113.0</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="26"/>
-      <c r="X38" s="26"/>
-      <c r="Y38" s="26"/>
-      <c r="Z38" s="26"/>
+      <c r="B38" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
     </row>
     <row r="39">
-      <c r="A39" s="24">
+      <c r="A39" s="21">
         <v>37.0</v>
       </c>
-      <c r="B39" s="25">
-        <v>112114.0</v>
-      </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="26"/>
-      <c r="X39" s="26"/>
-      <c r="Y39" s="26"/>
-      <c r="Z39" s="26"/>
+      <c r="B39" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="23"/>
+      <c r="Y39" s="23"/>
+      <c r="Z39" s="23"/>
     </row>
     <row r="40">
-      <c r="A40" s="24">
+      <c r="A40" s="21">
         <v>38.0</v>
       </c>
-      <c r="B40" s="25">
-        <v>1.12113114115E11</v>
-      </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="26"/>
-      <c r="X40" s="26"/>
-      <c r="Y40" s="26"/>
-      <c r="Z40" s="26"/>
+      <c r="B40" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
+      <c r="X40" s="23"/>
+      <c r="Y40" s="23"/>
+      <c r="Z40" s="23"/>
     </row>
     <row r="41">
-      <c r="A41" s="24">
+      <c r="A41" s="21">
         <v>39.0</v>
       </c>
-      <c r="B41" s="25">
-        <v>113115.0</v>
-      </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="26"/>
-      <c r="Z41" s="26"/>
+      <c r="B41" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="23"/>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
     </row>
     <row r="42">
-      <c r="A42" s="24">
+      <c r="A42" s="21">
         <v>40.0</v>
       </c>
-      <c r="B42" s="25">
-        <v>1.16117118E8</v>
-      </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="26"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="26"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="26"/>
-      <c r="X42" s="26"/>
-      <c r="Y42" s="26"/>
-      <c r="Z42" s="26"/>
+      <c r="B42" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
     </row>
     <row r="43">
-      <c r="A43" s="24">
+      <c r="A43" s="21">
         <v>41.0</v>
       </c>
-      <c r="B43" s="25">
-        <v>1.1711811912E11</v>
-      </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26"/>
-      <c r="W43" s="26"/>
-      <c r="X43" s="26"/>
-      <c r="Y43" s="26"/>
-      <c r="Z43" s="26"/>
+      <c r="B43" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/Assets/SceneData/Game/Editor/Excel/EnemyPopTable.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/EnemyPopTable.xlsx
@@ -22,13 +22,13 @@
     <t>0,1,2,3</t>
   </si>
   <si>
-    <t>5,6,7,8,13</t>
-  </si>
-  <si>
-    <t>9,10,12</t>
-  </si>
-  <si>
-    <t>10,11,12,14</t>
+    <t>5,6,7,8,13,101</t>
+  </si>
+  <si>
+    <t>9,10,12,101,102</t>
+  </si>
+  <si>
+    <t>10,11,12,14,103</t>
   </si>
   <si>
     <t>16,17,18,21</t>

--- a/Assets/SceneData/Game/Editor/Excel/EnemyPopTable.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/EnemyPopTable.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -22,13 +22,25 @@
     <t>0,1,2,3</t>
   </si>
   <si>
-    <t>5,6,7,8,13,101</t>
-  </si>
-  <si>
-    <t>9,10,12,101,102</t>
+    <t>5,6,7,8,13</t>
+  </si>
+  <si>
+    <t>6,7,8,101</t>
+  </si>
+  <si>
+    <t>9,10,12</t>
+  </si>
+  <si>
+    <t>9,10,12,13</t>
+  </si>
+  <si>
+    <t>9,10,12,13,102</t>
   </si>
   <si>
     <t>10,11,12,14,103</t>
+  </si>
+  <si>
+    <t>10,11,12,14</t>
   </si>
   <si>
     <t>16,17,18,21</t>
@@ -342,36 +354,12 @@
       <c r="A5" s="5">
         <v>3.0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
     </row>
     <row r="6">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>4.0</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -403,43 +391,43 @@
       <c r="Z6" s="7"/>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="5">
         <v>5.0</v>
       </c>
-      <c r="B7" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <v>6.0</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -470,24 +458,72 @@
       <c r="A9" s="5">
         <v>7.0</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="5">
+      <c r="A10" s="1">
         <v>8.0</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
         <v>9.0</v>
       </c>
       <c r="B11" s="3">
-        <v>24.0</v>
+        <v>15.0</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -518,233 +554,185 @@
       <c r="A12" s="5">
         <v>10.0</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="5">
         <v>11.0</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
         <v>12.0</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
+      <c r="B14" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <v>13.0</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B15" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="5">
         <v>14.0</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2">
+      <c r="A17" s="5">
         <v>15.0</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="3">
         <v>51.0</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9">
-        <v>16.0</v>
-      </c>
-      <c r="B18" s="10">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="10">
         <v>100.0</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="12">
-        <v>17.0</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="12">
-        <v>18.0</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="12">
-        <v>19.0</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="12">
-        <v>20.0</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
     </row>
     <row r="23">
       <c r="A23" s="12">
@@ -811,132 +799,132 @@
       <c r="Z24" s="14"/>
     </row>
     <row r="25">
-      <c r="A25" s="15">
+      <c r="A25" s="12">
         <v>23.0</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
     </row>
     <row r="26">
-      <c r="A26" s="15">
+      <c r="A26" s="12">
         <v>24.0</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
     </row>
     <row r="27">
-      <c r="A27" s="15">
+      <c r="A27" s="12">
         <v>25.0</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
     </row>
     <row r="28">
-      <c r="A28" s="15">
+      <c r="A28" s="12">
         <v>26.0</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
     </row>
     <row r="29">
       <c r="A29" s="15">
@@ -1003,132 +991,132 @@
       <c r="Z30" s="17"/>
     </row>
     <row r="31">
-      <c r="A31" s="18">
+      <c r="A31" s="15">
         <v>29.0</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
     </row>
     <row r="32">
-      <c r="A32" s="18">
+      <c r="A32" s="15">
         <v>30.0</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="20"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
     </row>
     <row r="33">
-      <c r="A33" s="18">
+      <c r="A33" s="15">
         <v>31.0</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="20"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="20"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
     </row>
     <row r="34">
-      <c r="A34" s="18">
+      <c r="A34" s="15">
         <v>32.0</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="20"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
     </row>
     <row r="35">
       <c r="A35" s="18">
@@ -1195,132 +1183,132 @@
       <c r="Z36" s="20"/>
     </row>
     <row r="37">
-      <c r="A37" s="21">
+      <c r="A37" s="18">
         <v>35.0</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="23"/>
-      <c r="T37" s="23"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="23"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="23"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="23"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
     </row>
     <row r="38">
-      <c r="A38" s="21">
+      <c r="A38" s="18">
         <v>36.0</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-      <c r="Z38" s="23"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
     </row>
     <row r="39">
-      <c r="A39" s="21">
+      <c r="A39" s="18">
         <v>37.0</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="23"/>
-      <c r="Z39" s="23"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
     </row>
     <row r="40">
-      <c r="A40" s="21">
+      <c r="A40" s="18">
         <v>38.0</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="23"/>
-      <c r="Z40" s="23"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
     </row>
     <row r="41">
       <c r="A41" s="21">
@@ -1418,6 +1406,134 @@
       <c r="Y43" s="23"/>
       <c r="Z43" s="23"/>
     </row>
+    <row r="44">
+      <c r="A44" s="21">
+        <v>42.0</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23"/>
+      <c r="W44" s="23"/>
+      <c r="X44" s="23"/>
+      <c r="Y44" s="23"/>
+      <c r="Z44" s="23"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="21">
+        <v>43.0</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="23"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="23"/>
+      <c r="V45" s="23"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="23"/>
+      <c r="Z45" s="23"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="21">
+        <v>44.0</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="23"/>
+      <c r="W46" s="23"/>
+      <c r="X46" s="23"/>
+      <c r="Y46" s="23"/>
+      <c r="Z46" s="23"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="21">
+        <v>45.0</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="23"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/SceneData/Game/Editor/Excel/EnemyPopTable.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/EnemyPopTable.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -46,25 +46,25 @@
     <t>16,17,18,21</t>
   </si>
   <si>
-    <t>16,17,18,21,104</t>
+    <t>16,17,18,21,104,105</t>
   </si>
   <si>
     <t>19,20,22,26</t>
   </si>
   <si>
-    <t>19,20,22,26,105</t>
+    <t>19,20,22,26,105,106</t>
   </si>
   <si>
     <t>23,25,27,28,29</t>
   </si>
   <si>
-    <t>23,25,27,28,29,106,107</t>
+    <t>23,25,27,28,29,106,107,108</t>
   </si>
   <si>
     <t>30,31,32,33</t>
   </si>
   <si>
-    <t>30,31,32,33,107</t>
+    <t>30,31,32,33,107,108</t>
   </si>
   <si>
     <t>30,31,32,33,108</t>
@@ -73,15 +73,12 @@
     <t>34,35,36,37</t>
   </si>
   <si>
-    <t>34,35,36,37,108</t>
+    <t>34,35,36,37,108,109</t>
   </si>
   <si>
     <t>34,35,36,37,109</t>
   </si>
   <si>
-    <t>35,45,39,40,48</t>
-  </si>
-  <si>
     <t>35,45,39,40,48,110</t>
   </si>
   <si>
@@ -91,31 +88,31 @@
     <t>35,45,39,40,48,112</t>
   </si>
   <si>
+    <t>35,45,39,40,48,113</t>
+  </si>
+  <si>
     <t>38,41,42,43,49</t>
   </si>
   <si>
-    <t>38,41,42,43,49,113</t>
-  </si>
-  <si>
     <t>38,41,42,43,49,114</t>
   </si>
   <si>
     <t>38,41,42,43,49,115</t>
   </si>
   <si>
-    <t>44,45,47,50</t>
-  </si>
-  <si>
-    <t>44,45,47,50,116</t>
-  </si>
-  <si>
-    <t>44,45,47,50,117</t>
-  </si>
-  <si>
-    <t>44,45,47,50,118</t>
-  </si>
-  <si>
-    <t>44,45,47,50,119,120</t>
+    <t>38,41,42,43,49,116</t>
+  </si>
+  <si>
+    <t>44,45,47</t>
+  </si>
+  <si>
+    <t>44,45,47,117</t>
+  </si>
+  <si>
+    <t>44,45,47,118,120</t>
+  </si>
+  <si>
+    <t>44,45,47,119,120</t>
   </si>
   <si>
     <t>101</t>
@@ -184,13 +181,13 @@
     <t>112,113,114,115</t>
   </si>
   <si>
-    <t>113,115</t>
-  </si>
-  <si>
-    <t>116,117,118</t>
-  </si>
-  <si>
-    <t>117,118,119,120</t>
+    <t>113,115,116</t>
+  </si>
+  <si>
+    <t>117,118,119</t>
+  </si>
+  <si>
+    <t>118,119,120</t>
   </si>
 </sst>
 </file>
@@ -835,8 +832,8 @@
       <c r="A37" s="2">
         <v>35.0</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>34</v>
+      <c r="B37" s="5">
+        <v>50.0</v>
       </c>
     </row>
     <row r="38">
@@ -908,7 +905,7 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -940,7 +937,7 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -972,7 +969,7 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -1004,7 +1001,7 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -1036,7 +1033,7 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -1068,7 +1065,7 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -1100,7 +1097,7 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -1132,7 +1129,7 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -1164,7 +1161,7 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -1196,7 +1193,7 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -1228,7 +1225,7 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -1260,7 +1257,7 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -1292,7 +1289,7 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -1324,7 +1321,7 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -1356,7 +1353,7 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -1388,7 +1385,7 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -1420,7 +1417,7 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -1452,7 +1449,7 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -1484,7 +1481,7 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
@@ -1516,7 +1513,7 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -1548,7 +1545,7 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
@@ -1580,7 +1577,7 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
@@ -1612,7 +1609,7 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -1644,7 +1641,7 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -1676,7 +1673,7 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>

--- a/Assets/SceneData/Game/Editor/Excel/EnemyPopTable.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/EnemyPopTable.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -64,22 +64,19 @@
     <t>30,31,32,33</t>
   </si>
   <si>
-    <t>30,31,32,33,107,108</t>
-  </si>
-  <si>
-    <t>30,31,32,33,108</t>
+    <t>30,31,32,33,109,110</t>
+  </si>
+  <si>
+    <t>30,31,32,33,1010</t>
   </si>
   <si>
     <t>34,35,36,37</t>
   </si>
   <si>
-    <t>34,35,36,37,108,109</t>
-  </si>
-  <si>
-    <t>34,35,36,37,109</t>
-  </si>
-  <si>
-    <t>35,45,39,40,48,110</t>
+    <t>34,35,36,37,110,111</t>
+  </si>
+  <si>
+    <t>34,35,36,37,112</t>
   </si>
   <si>
     <t>35,45,39,40,48,111</t>
@@ -753,7 +750,7 @@
         <v>25.0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -761,7 +758,7 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
@@ -769,7 +766,7 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
@@ -777,7 +774,7 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
@@ -785,7 +782,7 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32">
@@ -793,7 +790,7 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
@@ -801,7 +798,7 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -809,7 +806,7 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -817,7 +814,7 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36">
@@ -825,7 +822,7 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -905,7 +902,7 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -937,7 +934,7 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -969,7 +966,7 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -1001,7 +998,7 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -1033,7 +1030,7 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -1065,7 +1062,7 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -1097,7 +1094,7 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -1129,7 +1126,7 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -1161,7 +1158,7 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -1193,7 +1190,7 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -1225,7 +1222,7 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -1257,7 +1254,7 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -1289,7 +1286,7 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -1321,7 +1318,7 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -1353,7 +1350,7 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -1385,7 +1382,7 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -1417,7 +1414,7 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -1449,7 +1446,7 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -1481,7 +1478,7 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
@@ -1513,7 +1510,7 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -1545,7 +1542,7 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
@@ -1577,7 +1574,7 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
@@ -1609,7 +1606,7 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -1641,7 +1638,7 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -1673,7 +1670,7 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>

--- a/Assets/SceneData/Game/Editor/Excel/EnemyPopTable.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/EnemyPopTable.xlsx
@@ -67,7 +67,7 @@
     <t>30,31,32,33,109,110</t>
   </si>
   <si>
-    <t>30,31,32,33,1010</t>
+    <t>30,31,32,33,110,110</t>
   </si>
   <si>
     <t>34,35,36,37</t>

--- a/Assets/SceneData/Game/Editor/Excel/EnemyPopTable.xlsx
+++ b/Assets/SceneData/Game/Editor/Excel/EnemyPopTable.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -58,28 +58,25 @@
     <t>23,25,27,28,29</t>
   </si>
   <si>
-    <t>23,25,27,28,29,106,107,108</t>
+    <t>23,25,27,28,29,106,107,108,109</t>
   </si>
   <si>
     <t>30,31,32,33</t>
   </si>
   <si>
-    <t>30,31,32,33,109,110</t>
-  </si>
-  <si>
-    <t>30,31,32,33,110,110</t>
+    <t>30,31,32,33,110,111</t>
+  </si>
+  <si>
+    <t>30,31,32,33,111,112</t>
   </si>
   <si>
     <t>34,35,36,37</t>
   </si>
   <si>
-    <t>34,35,36,37,110,111</t>
+    <t>34,35,36,37,111,112</t>
   </si>
   <si>
     <t>34,35,36,37,112</t>
-  </si>
-  <si>
-    <t>35,45,39,40,48,111</t>
   </si>
   <si>
     <t>35,45,39,40,48,112</t>
@@ -742,7 +739,7 @@
         <v>24.0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -758,7 +755,7 @@
         <v>26.0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -766,7 +763,7 @@
         <v>27.0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
@@ -774,7 +771,7 @@
         <v>28.0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -782,7 +779,7 @@
         <v>29.0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
@@ -790,7 +787,7 @@
         <v>30.0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
@@ -798,7 +795,7 @@
         <v>31.0</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
@@ -806,7 +803,7 @@
         <v>32.0</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -814,7 +811,7 @@
         <v>33.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
@@ -822,7 +819,7 @@
         <v>34.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -902,7 +899,7 @@
         <v>38.0</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -934,7 +931,7 @@
         <v>39.0</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -966,7 +963,7 @@
         <v>40.0</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -998,7 +995,7 @@
         <v>41.0</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -1030,7 +1027,7 @@
         <v>42.0</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -1062,7 +1059,7 @@
         <v>43.0</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -1094,7 +1091,7 @@
         <v>44.0</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -1126,7 +1123,7 @@
         <v>45.0</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -1158,7 +1155,7 @@
         <v>46.0</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -1190,7 +1187,7 @@
         <v>47.0</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -1222,7 +1219,7 @@
         <v>48.0</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -1254,7 +1251,7 @@
         <v>49.0</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -1286,7 +1283,7 @@
         <v>50.0</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -1318,7 +1315,7 @@
         <v>51.0</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -1350,7 +1347,7 @@
         <v>52.0</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -1382,7 +1379,7 @@
         <v>53.0</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
@@ -1414,7 +1411,7 @@
         <v>54.0</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -1446,7 +1443,7 @@
         <v>55.0</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
@@ -1478,7 +1475,7 @@
         <v>56.0</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
@@ -1510,7 +1507,7 @@
         <v>57.0</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
@@ -1542,7 +1539,7 @@
         <v>58.0</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
@@ -1574,7 +1571,7 @@
         <v>59.0</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
@@ -1606,7 +1603,7 @@
         <v>60.0</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
@@ -1638,7 +1635,7 @@
         <v>61.0</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
@@ -1670,7 +1667,7 @@
         <v>62.0</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
